--- a/database/CornPice.xlsx
+++ b/database/CornPice.xlsx
@@ -1850,13 +1850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL3266"/>
+  <dimension ref="A1:BL3269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S3255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL3271" sqref="BL3271"/>
+      <selection pane="bottomRight" activeCell="Z3272" sqref="Z3272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -77123,14 +77123,14 @@
         <v>2020</v>
       </c>
       <c r="M3261" s="63">
-        <f>L3261-Q3261-B3261-90</f>
+        <f t="shared" ref="M3261:M3269" si="430">L3261-Q3261-B3261-90</f>
         <v>-37</v>
       </c>
       <c r="N3261" s="30">
         <v>2030</v>
       </c>
       <c r="O3261" s="30">
-        <f>N3261-S3261-B3261-90</f>
+        <f t="shared" ref="O3261:O3269" si="431">N3261-S3261-B3261-90</f>
         <v>-7</v>
       </c>
       <c r="P3261" s="5">
@@ -77271,28 +77271,28 @@
         <v>2020</v>
       </c>
       <c r="I3262" s="64">
-        <f>H3262-P3262-B3262-90</f>
+        <f t="shared" ref="I3262:I3269" si="432">H3262-P3262-B3262-90</f>
         <v>-25</v>
       </c>
       <c r="J3262" s="26">
         <v>2040</v>
       </c>
       <c r="K3262" s="65">
-        <f>J3262-R3262-B3262-90</f>
+        <f t="shared" ref="K3262:K3269" si="433">J3262-R3262-B3262-90</f>
         <v>-3</v>
       </c>
       <c r="L3262" s="28">
         <v>2030</v>
       </c>
       <c r="M3262" s="63">
-        <f>L3262-Q3262-B3262-90</f>
+        <f t="shared" si="430"/>
         <v>-27</v>
       </c>
       <c r="N3262" s="30">
         <v>2040</v>
       </c>
       <c r="O3262" s="62">
-        <f>N3262-S3262-B3262-90</f>
+        <f t="shared" si="431"/>
         <v>3</v>
       </c>
       <c r="P3262" s="5">
@@ -77430,28 +77430,28 @@
         <v>2020</v>
       </c>
       <c r="I3263" s="64">
-        <f>H3263-P3263-B3263-90</f>
+        <f t="shared" si="432"/>
         <v>-25</v>
       </c>
       <c r="J3263" s="26">
         <v>2040</v>
       </c>
       <c r="K3263" s="65">
-        <f>J3263-R3263-B3263-90</f>
+        <f t="shared" si="433"/>
         <v>-3</v>
       </c>
       <c r="L3263" s="28">
         <v>2030</v>
       </c>
       <c r="M3263" s="63">
-        <f>L3263-Q3263-B3263-90</f>
+        <f t="shared" si="430"/>
         <v>-27</v>
       </c>
       <c r="N3263" s="30">
         <v>2040</v>
       </c>
       <c r="O3263" s="62">
-        <f>N3263-S3263-B3263-90</f>
+        <f t="shared" si="431"/>
         <v>3</v>
       </c>
       <c r="P3263" s="5">
@@ -77601,28 +77601,28 @@
         <v>2010</v>
       </c>
       <c r="I3264" s="24">
-        <f>H3264-P3264-B3264-90</f>
+        <f t="shared" si="432"/>
         <v>-35</v>
       </c>
       <c r="J3264" s="26">
         <v>2040</v>
       </c>
       <c r="K3264" s="26">
-        <f>J3264-R3264-B3264-90</f>
+        <f t="shared" si="433"/>
         <v>-3</v>
       </c>
       <c r="L3264" s="28">
         <v>2020</v>
       </c>
       <c r="M3264" s="28">
-        <f>L3264-Q3264-B3264-90</f>
+        <f t="shared" si="430"/>
         <v>-37</v>
       </c>
       <c r="N3264" s="30">
         <v>2040</v>
       </c>
       <c r="O3264" s="62">
-        <f>N3264-S3264-B3264-90</f>
+        <f t="shared" si="431"/>
         <v>3</v>
       </c>
       <c r="P3264" s="5">
@@ -77760,28 +77760,28 @@
         <v>2020</v>
       </c>
       <c r="I3265" s="24">
-        <f>H3265-P3265-B3265-90</f>
+        <f t="shared" si="432"/>
         <v>-35</v>
       </c>
       <c r="J3265" s="26">
         <v>2040</v>
       </c>
       <c r="K3265" s="26">
-        <f>J3265-R3265-B3265-90</f>
+        <f t="shared" si="433"/>
         <v>-13</v>
       </c>
       <c r="L3265" s="28">
         <v>2030</v>
       </c>
       <c r="M3265" s="28">
-        <f>L3265-Q3265-B3265-90</f>
+        <f t="shared" si="430"/>
         <v>-37</v>
       </c>
       <c r="N3265" s="30">
         <v>2040</v>
       </c>
       <c r="O3265" s="62">
-        <f>N3265-S3265-B3265-90</f>
+        <f t="shared" si="431"/>
         <v>-7</v>
       </c>
       <c r="P3265" s="5">
@@ -77919,28 +77919,28 @@
         <v>2020</v>
       </c>
       <c r="I3266" s="24">
-        <f>H3266-P3266-B3266-90</f>
+        <f t="shared" si="432"/>
         <v>-35</v>
       </c>
       <c r="J3266" s="26">
         <v>2040</v>
       </c>
       <c r="K3266" s="26">
-        <f>J3266-R3266-B3266-90</f>
+        <f t="shared" si="433"/>
         <v>-13</v>
       </c>
       <c r="L3266" s="28">
         <v>2030</v>
       </c>
       <c r="M3266" s="28">
-        <f>L3266-Q3266-B3266-90</f>
+        <f t="shared" si="430"/>
         <v>-37</v>
       </c>
       <c r="N3266" s="30">
         <v>2040</v>
       </c>
       <c r="O3266" s="62">
-        <f>N3266-S3266-B3266-90</f>
+        <f t="shared" si="431"/>
         <v>-7</v>
       </c>
       <c r="P3266" s="5">
@@ -78040,10 +78040,10 @@
         <v>2130</v>
       </c>
       <c r="BE3266" s="6">
-        <v>2060</v>
+        <v>2080</v>
       </c>
       <c r="BF3266" s="6">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="BG3266" s="6">
         <v>2080</v>
@@ -78061,6 +78061,495 @@
         <v>2070</v>
       </c>
       <c r="BL3266" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:64">
+      <c r="A3267" s="3">
+        <v>43613</v>
+      </c>
+      <c r="B3267" s="52">
+        <v>1910</v>
+      </c>
+      <c r="D3267" s="4">
+        <v>1910</v>
+      </c>
+      <c r="F3267" s="4">
+        <v>2020</v>
+      </c>
+      <c r="H3267" s="24">
+        <v>2020</v>
+      </c>
+      <c r="I3267" s="24">
+        <f t="shared" si="432"/>
+        <v>-35</v>
+      </c>
+      <c r="J3267" s="26">
+        <v>2040</v>
+      </c>
+      <c r="K3267" s="26">
+        <f t="shared" si="433"/>
+        <v>-13</v>
+      </c>
+      <c r="L3267" s="28">
+        <v>2030</v>
+      </c>
+      <c r="M3267" s="28">
+        <f t="shared" si="430"/>
+        <v>-37</v>
+      </c>
+      <c r="N3267" s="30">
+        <v>2040</v>
+      </c>
+      <c r="O3267" s="62">
+        <f t="shared" si="431"/>
+        <v>-7</v>
+      </c>
+      <c r="P3267" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q3267" s="5">
+        <v>67</v>
+      </c>
+      <c r="R3267" s="5">
+        <v>53</v>
+      </c>
+      <c r="S3267" s="21">
+        <v>47</v>
+      </c>
+      <c r="V3267" s="8">
+        <v>1610</v>
+      </c>
+      <c r="W3267" s="8">
+        <v>1720</v>
+      </c>
+      <c r="X3267" s="8">
+        <v>1630</v>
+      </c>
+      <c r="Y3267" s="6">
+        <v>1800</v>
+      </c>
+      <c r="AB3267" s="8">
+        <v>1780</v>
+      </c>
+      <c r="AC3267" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AD3267" s="8">
+        <v>1810</v>
+      </c>
+      <c r="AF3267" s="6">
+        <v>1720</v>
+      </c>
+      <c r="AI3267" s="6">
+        <v>1760</v>
+      </c>
+      <c r="AK3267" s="8">
+        <v>1750</v>
+      </c>
+      <c r="AL3267" s="6">
+        <v>1820</v>
+      </c>
+      <c r="AN3267" s="8">
+        <v>1780</v>
+      </c>
+      <c r="AO3267" s="8">
+        <v>1660</v>
+      </c>
+      <c r="AP3267" s="8">
+        <v>1750</v>
+      </c>
+      <c r="AQ3267" s="8">
+        <v>1800</v>
+      </c>
+      <c r="AR3267" s="8">
+        <v>1680</v>
+      </c>
+      <c r="AS3267" s="6">
+        <v>1900</v>
+      </c>
+      <c r="AT3267" s="8">
+        <v>1850</v>
+      </c>
+      <c r="AV3267" s="6">
+        <v>1840</v>
+      </c>
+      <c r="AW3267" s="6">
+        <v>1750</v>
+      </c>
+      <c r="AX3267" s="6">
+        <v>1740</v>
+      </c>
+      <c r="AY3267" s="6">
+        <v>1960</v>
+      </c>
+      <c r="AZ3267" s="6">
+        <v>1960</v>
+      </c>
+      <c r="BA3267" s="6">
+        <v>2060</v>
+      </c>
+      <c r="BB3267" s="6">
+        <v>2010</v>
+      </c>
+      <c r="BC3267" s="6">
+        <v>2060</v>
+      </c>
+      <c r="BD3267" s="6">
+        <v>2130</v>
+      </c>
+      <c r="BE3267" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BF3267" s="6">
+        <v>2030</v>
+      </c>
+      <c r="BG3267" s="6">
+        <v>2090</v>
+      </c>
+      <c r="BH3267" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BI3267" s="6">
+        <v>2240</v>
+      </c>
+      <c r="BJ3267" s="6">
+        <v>2100</v>
+      </c>
+      <c r="BK3267" s="6">
+        <v>2070</v>
+      </c>
+      <c r="BL3267" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:64">
+      <c r="A3268" s="3">
+        <v>43614</v>
+      </c>
+      <c r="B3268" s="52">
+        <v>1910</v>
+      </c>
+      <c r="D3268" s="4">
+        <v>1910</v>
+      </c>
+      <c r="F3268" s="4">
+        <v>2010</v>
+      </c>
+      <c r="H3268" s="24">
+        <v>2010</v>
+      </c>
+      <c r="I3268" s="24">
+        <f t="shared" si="432"/>
+        <v>-43</v>
+      </c>
+      <c r="J3268" s="26">
+        <v>2040</v>
+      </c>
+      <c r="K3268" s="26">
+        <f t="shared" si="433"/>
+        <v>-11</v>
+      </c>
+      <c r="L3268" s="28">
+        <v>2030</v>
+      </c>
+      <c r="M3268" s="28">
+        <f t="shared" si="430"/>
+        <v>-31</v>
+      </c>
+      <c r="N3268" s="30">
+        <v>2040</v>
+      </c>
+      <c r="O3268" s="62">
+        <f t="shared" si="431"/>
+        <v>-5</v>
+      </c>
+      <c r="P3268" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q3268" s="5">
+        <v>61</v>
+      </c>
+      <c r="R3268" s="5">
+        <v>51</v>
+      </c>
+      <c r="S3268" s="21">
+        <v>45</v>
+      </c>
+      <c r="U3268" s="7">
+        <v>190</v>
+      </c>
+      <c r="V3268" s="8">
+        <v>1610</v>
+      </c>
+      <c r="W3268" s="8">
+        <v>1720</v>
+      </c>
+      <c r="X3268" s="8">
+        <v>1630</v>
+      </c>
+      <c r="Y3268" s="6">
+        <v>1800</v>
+      </c>
+      <c r="Z3268" s="7">
+        <v>130</v>
+      </c>
+      <c r="AB3268" s="8">
+        <v>1780</v>
+      </c>
+      <c r="AC3268" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AD3268" s="8">
+        <v>1810</v>
+      </c>
+      <c r="AF3268" s="6">
+        <v>1720</v>
+      </c>
+      <c r="AI3268" s="6">
+        <v>1760</v>
+      </c>
+      <c r="AJ3268" s="7">
+        <v>130</v>
+      </c>
+      <c r="AK3268" s="8">
+        <v>1750</v>
+      </c>
+      <c r="AL3268" s="6">
+        <v>1820</v>
+      </c>
+      <c r="AM3268" s="9">
+        <v>125</v>
+      </c>
+      <c r="AN3268" s="8">
+        <v>1780</v>
+      </c>
+      <c r="AO3268" s="8">
+        <v>1660</v>
+      </c>
+      <c r="AP3268" s="8">
+        <v>1750</v>
+      </c>
+      <c r="AQ3268" s="8">
+        <v>1800</v>
+      </c>
+      <c r="AR3268" s="8">
+        <v>1680</v>
+      </c>
+      <c r="AS3268" s="6">
+        <v>1900</v>
+      </c>
+      <c r="AT3268" s="8">
+        <v>1850</v>
+      </c>
+      <c r="AV3268" s="6">
+        <v>1840</v>
+      </c>
+      <c r="AW3268" s="6">
+        <v>1750</v>
+      </c>
+      <c r="AX3268" s="6">
+        <v>1740</v>
+      </c>
+      <c r="AY3268" s="6">
+        <v>1960</v>
+      </c>
+      <c r="AZ3268" s="6">
+        <v>1960</v>
+      </c>
+      <c r="BA3268" s="6">
+        <v>2060</v>
+      </c>
+      <c r="BB3268" s="6">
+        <v>2010</v>
+      </c>
+      <c r="BC3268" s="6">
+        <v>2070</v>
+      </c>
+      <c r="BD3268" s="6">
+        <v>2130</v>
+      </c>
+      <c r="BE3268" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BF3268" s="6">
+        <v>2030</v>
+      </c>
+      <c r="BG3268" s="6">
+        <v>2090</v>
+      </c>
+      <c r="BH3268" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BI3268" s="6">
+        <v>2240</v>
+      </c>
+      <c r="BJ3268" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BK3268" s="6">
+        <v>2070</v>
+      </c>
+      <c r="BL3268" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:64">
+      <c r="A3269" s="3">
+        <v>43615</v>
+      </c>
+      <c r="B3269" s="52">
+        <v>1910</v>
+      </c>
+      <c r="D3269" s="4">
+        <v>1910</v>
+      </c>
+      <c r="F3269" s="4">
+        <v>2010</v>
+      </c>
+      <c r="H3269" s="24">
+        <v>2010</v>
+      </c>
+      <c r="I3269" s="24">
+        <f t="shared" si="432"/>
+        <v>-43</v>
+      </c>
+      <c r="J3269" s="26">
+        <v>2040</v>
+      </c>
+      <c r="K3269" s="26">
+        <f t="shared" si="433"/>
+        <v>-11</v>
+      </c>
+      <c r="L3269" s="28">
+        <v>2030</v>
+      </c>
+      <c r="M3269" s="28">
+        <f t="shared" si="430"/>
+        <v>-31</v>
+      </c>
+      <c r="N3269" s="30">
+        <v>2040</v>
+      </c>
+      <c r="O3269" s="62">
+        <f t="shared" si="431"/>
+        <v>-5</v>
+      </c>
+      <c r="P3269" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q3269" s="5">
+        <v>61</v>
+      </c>
+      <c r="R3269" s="5">
+        <v>51</v>
+      </c>
+      <c r="S3269" s="21">
+        <v>45</v>
+      </c>
+      <c r="V3269" s="8">
+        <v>1610</v>
+      </c>
+      <c r="W3269" s="8">
+        <v>1720</v>
+      </c>
+      <c r="X3269" s="8">
+        <v>1630</v>
+      </c>
+      <c r="Y3269" s="6">
+        <v>1800</v>
+      </c>
+      <c r="AB3269" s="8">
+        <v>1780</v>
+      </c>
+      <c r="AC3269" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AD3269" s="8">
+        <v>1810</v>
+      </c>
+      <c r="AF3269" s="6">
+        <v>1720</v>
+      </c>
+      <c r="AI3269" s="6">
+        <v>1760</v>
+      </c>
+      <c r="AK3269" s="8">
+        <v>1750</v>
+      </c>
+      <c r="AL3269" s="6">
+        <v>1820</v>
+      </c>
+      <c r="AN3269" s="8">
+        <v>1780</v>
+      </c>
+      <c r="AO3269" s="8">
+        <v>1660</v>
+      </c>
+      <c r="AP3269" s="8">
+        <v>1750</v>
+      </c>
+      <c r="AQ3269" s="8">
+        <v>1800</v>
+      </c>
+      <c r="AR3269" s="8">
+        <v>1680</v>
+      </c>
+      <c r="AS3269" s="6">
+        <v>1900</v>
+      </c>
+      <c r="AT3269" s="8">
+        <v>1850</v>
+      </c>
+      <c r="AV3269" s="6">
+        <v>1840</v>
+      </c>
+      <c r="AW3269" s="6">
+        <v>1750</v>
+      </c>
+      <c r="AX3269" s="6">
+        <v>1740</v>
+      </c>
+      <c r="AY3269" s="6">
+        <v>1960</v>
+      </c>
+      <c r="AZ3269" s="6">
+        <v>1960</v>
+      </c>
+      <c r="BA3269" s="6">
+        <v>2060</v>
+      </c>
+      <c r="BB3269" s="6">
+        <v>2010</v>
+      </c>
+      <c r="BC3269" s="6">
+        <v>2070</v>
+      </c>
+      <c r="BD3269" s="6">
+        <v>2130</v>
+      </c>
+      <c r="BE3269" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BF3269" s="6">
+        <v>2040</v>
+      </c>
+      <c r="BG3269" s="6">
+        <v>2090</v>
+      </c>
+      <c r="BH3269" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BI3269" s="6">
+        <v>2250</v>
+      </c>
+      <c r="BJ3269" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BK3269" s="6">
+        <v>2070</v>
+      </c>
+      <c r="BL3269" s="6">
         <v>2100</v>
       </c>
     </row>
@@ -78158,7 +78647,7 @@
       </c>
       <c r="C2" s="44">
         <f ca="1">TODAY()</f>
-        <v>43612</v>
+        <v>43615</v>
       </c>
       <c r="D2" s="44">
         <v>43470</v>
@@ -78195,7 +78684,7 @@
     <row r="3" spans="1:32" ht="16.5">
       <c r="A3" s="66">
         <f ca="1">TODAY()</f>
-        <v>43612</v>
+        <v>43615</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="68"/>
@@ -78386,7 +78875,7 @@
       </c>
       <c r="N5" s="39">
         <f>LOOKUP(2,1/(prices!$AY:$AY&lt;&gt;0),prices!$AY:$AY)</f>
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="O5" s="18">
         <v>4</v>
@@ -78396,15 +78885,15 @@
       </c>
       <c r="Q5" s="36">
         <f ca="1">C5*0.1*($D$2-$C$2)/365</f>
-        <v>-67.30410958904109</v>
+        <v>-68.726027397260268</v>
       </c>
       <c r="R5" s="36">
         <f ca="1">AA5*0.2*0.1*($D$2-$C$2)/365</f>
-        <v>-14.565698630136987</v>
+        <v>-14.873424657534249</v>
       </c>
       <c r="S5" s="36">
         <f ca="1">SUM(O5:R5)</f>
-        <v>-72.869808219178083</v>
+        <v>-74.599452054794511</v>
       </c>
       <c r="T5" s="18">
         <v>20</v>
@@ -78427,7 +78916,7 @@
       </c>
       <c r="Z5" s="38">
         <f ca="1">K5+S5+Y5</f>
-        <v>1871.3301917808219</v>
+        <v>1869.6005479452056</v>
       </c>
       <c r="AA5" s="45">
         <f>$B$2</f>
@@ -78435,7 +78924,7 @@
       </c>
       <c r="AB5" s="47">
         <f ca="1">AA5-Z5</f>
-        <v>0.66980821917809408</v>
+        <v>2.3994520547944376</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="41"/>
@@ -78489,7 +78978,7 @@
       </c>
       <c r="N6" s="39">
         <f>LOOKUP(2,1/(prices!$BC:$BC&lt;&gt;0),prices!$BC:$BC)</f>
-        <v>2060</v>
+        <v>2070</v>
       </c>
       <c r="O6" s="18">
         <v>4</v>
@@ -78499,15 +78988,15 @@
       </c>
       <c r="Q6" s="36">
         <f ca="1">C6*0.1*($D$2-$C$2)/365</f>
-        <v>-70.416438356164377</v>
+        <v>-71.904109589041099</v>
       </c>
       <c r="R6" s="36">
         <f ca="1">AA6*0.2*0.1*($D$2-$C$2)/365</f>
-        <v>-14.565698630136987</v>
+        <v>-14.873424657534249</v>
       </c>
       <c r="S6" s="36">
         <f ca="1">SUM(O6:R6)</f>
-        <v>-75.98213698630137</v>
+        <v>-77.777534246575343</v>
       </c>
       <c r="T6" s="18">
         <v>20</v>
@@ -78530,7 +79019,7 @@
       </c>
       <c r="Z6" s="38">
         <f ca="1">K6+S6+Y6</f>
-        <v>1886.7178630136987</v>
+        <v>1884.9224657534246</v>
       </c>
       <c r="AA6" s="45">
         <f>$B$2</f>
@@ -78538,7 +79027,7 @@
       </c>
       <c r="AB6" s="47">
         <f ca="1">AA6-Z6</f>
-        <v>-14.717863013698661</v>
+        <v>-12.922465753424603</v>
       </c>
       <c r="AC6" s="40"/>
       <c r="AD6" s="41"/>
@@ -78599,15 +79088,15 @@
       </c>
       <c r="Q7" s="36">
         <f ca="1">C7*0.1*($D$2-$C$2)/365</f>
-        <v>-70.455342465753432</v>
+        <v>-71.943835616438363</v>
       </c>
       <c r="R7" s="36">
         <f ca="1">AA7*0.2*0.1*($D$2-$C$2)/365</f>
-        <v>-14.565698630136987</v>
+        <v>-14.873424657534249</v>
       </c>
       <c r="S7" s="36">
         <f ca="1">SUM(O7:R7)</f>
-        <v>-76.021041095890425</v>
+        <v>-77.817260273972607</v>
       </c>
       <c r="T7" s="18">
         <v>20</v>
@@ -78630,7 +79119,7 @@
       </c>
       <c r="Z7" s="38">
         <f ca="1">K7+S7+Y7</f>
-        <v>1990.1789589041095</v>
+        <v>1988.3827397260275</v>
       </c>
       <c r="AA7" s="45">
         <f>$B$2</f>
@@ -78638,7 +79127,7 @@
       </c>
       <c r="AB7" s="47">
         <f ca="1">AA7-Z7</f>
-        <v>-118.17895890410955</v>
+        <v>-116.38273972602747</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="41"/>
@@ -78697,15 +79186,15 @@
       </c>
       <c r="Q8" s="36">
         <f ca="1">C8*0.1*($D$2-$C$2)/365</f>
-        <v>-68.8213698630137</v>
+        <v>-70.275342465753425</v>
       </c>
       <c r="R8" s="36">
         <f ca="1">AA8*0.2*0.1*($D$2-$C$2)/365</f>
-        <v>-14.565698630136987</v>
+        <v>-14.873424657534249</v>
       </c>
       <c r="S8" s="36">
         <f ca="1">SUM(O8:R8)</f>
-        <v>-74.387068493150693</v>
+        <v>-76.148767123287669</v>
       </c>
       <c r="T8" s="18">
         <v>20</v>
@@ -78728,7 +79217,7 @@
       </c>
       <c r="Z8" s="38">
         <f ca="1">K8+S8+Y8</f>
-        <v>1901.2129315068494</v>
+        <v>1899.4512328767125</v>
       </c>
       <c r="AA8" s="45">
         <f>$B$2</f>
@@ -78736,7 +79225,7 @@
       </c>
       <c r="AB8" s="47">
         <f ca="1">AA8-Z8</f>
-        <v>-29.212931506849372</v>
+        <v>-27.451232876712538</v>
       </c>
       <c r="AC8" s="40"/>
       <c r="AD8" s="41"/>
@@ -78790,7 +79279,7 @@
       </c>
       <c r="N9" s="39">
         <f>LOOKUP(2,1/(prices!$BE:$BE&lt;&gt;0),prices!$BE:$BE)</f>
-        <v>2060</v>
+        <v>2080</v>
       </c>
       <c r="O9" s="18">
         <v>4</v>
@@ -78800,15 +79289,15 @@
       </c>
       <c r="Q9" s="36">
         <f ca="1">C9*0.1*($D$2-$C$2)/365</f>
-        <v>-70.455342465753432</v>
+        <v>-71.943835616438363</v>
       </c>
       <c r="R9" s="36">
         <f ca="1">AA9*0.2*0.1*($D$2-$C$2)/365</f>
-        <v>-14.565698630136987</v>
+        <v>-14.873424657534249</v>
       </c>
       <c r="S9" s="36">
         <f ca="1">SUM(O9:R9)</f>
-        <v>-76.021041095890425</v>
+        <v>-77.817260273972607</v>
       </c>
       <c r="T9" s="18">
         <v>20</v>
@@ -78831,7 +79320,7 @@
       </c>
       <c r="Z9" s="38">
         <f ca="1">K9+S9+Y9</f>
-        <v>1933.5789589041096</v>
+        <v>1931.7827397260276</v>
       </c>
       <c r="AA9" s="45">
         <f>$B$2</f>
@@ -78839,7 +79328,7 @@
       </c>
       <c r="AB9" s="47">
         <f ca="1">AA9-Z9</f>
-        <v>-61.578958904109641</v>
+        <v>-59.782739726027557</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="41"/>
@@ -78849,7 +79338,7 @@
     <row r="15" spans="1:32">
       <c r="A15" s="19">
         <f ca="1">A3</f>
-        <v>43612</v>
+        <v>43615</v>
       </c>
       <c r="B15" s="49">
         <f t="shared" ref="B15:G15" si="0">B3</f>
